--- a/源码学习/源码项目.xlsx
+++ b/源码学习/源码项目.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\架构学习\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\架构学习\源码学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,31 +42,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>微服务框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABP框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.abp.io/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orchard Core框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Wing 致力于打造一个功能强大、接地气的.NET 微服务框架，支持.NET Core 3.1及以上运行平台。
 框架支持 Consul 服务注册与发现，服务之间通讯支持了 http 和 grpc 调用，并且内置负载均衡器。
 对于分布式场景，支持了Saga分布式事务，并且支持三种恢复策略：向前恢复、向后恢复、先前再后。框架内置配置中心，服务配置可以集中统一管理。
 微服务链路追踪, 支持http/grpc/sql（包含ORM框架EFCore/FreeSql/SqlSugar）链路追踪及耗时分析统计。
 框架内置服务网关， 支持全局服务策略和个性化服务策略配置，灵活使用，支持RabbitMQ事件总线，自带友好操作的可视化 UI 管理界面。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orchard Core框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档管理系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABP框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.abp.io/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
   <dimension ref="B3:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,7 +444,7 @@
     </row>
     <row r="4" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -455,28 +455,28 @@
     </row>
     <row r="5" spans="2:4" ht="189" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
